--- a/biology/Zoologie/Calocheirus_tenerifae/Calocheirus_tenerifae.xlsx
+++ b/biology/Zoologie/Calocheirus_tenerifae/Calocheirus_tenerifae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calocheirus tenerifae est une espèce de pseudoscorpions de la famille des Hesperolpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Canaries en Espagne[1]. Elle se rencontre à Tenerife, à la Grande Canarie et à Lanzarote[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Canaries en Espagne. Elle se rencontre à Tenerife, à la Grande Canarie et à Lanzarote.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 0,84 mm de long sur 0,54 mm[3].
-Calocheirus tenerifae mesure de 2,5 à 2,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 0,84 mm de long sur 0,54 mm.
+Calocheirus tenerifae mesure de 2,5 à 2,9 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Tenerife.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mahnert, 2002 : Two new species of pseudoscorpions (Arachnida, Pseudoscorpiones) from caves on Tenerife and La Palma (Canary Islands, Spain), with some new records from the Canary Islands and the Azores (Portugal). Revue Suisse de Zoologie, vol. 109, no 4, p. 777-784 (texte intégral).</t>
         </is>
